--- a/Notebooks/tableonelag1.xlsx
+++ b/Notebooks/tableonelag1.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,10 +531,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>16806</v>
+        <v>16800</v>
       </c>
       <c r="E4" t="n">
-        <v>16488</v>
+        <v>16482</v>
       </c>
       <c r="F4" t="n">
         <v>318</v>
@@ -557,12 +557,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16488 (98.11)</t>
+          <t>16482 (98.11)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>16488 (100.00)</t>
+          <t>16482 (100.00)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -638,7 +638,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MGB, median [Q1,Q3]</t>
+          <t>GPM, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr"/>
@@ -652,7 +652,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.32 [0.18,0.56]</t>
+          <t>0.31 [0.18,0.56]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MGN, median [Q1,Q3]</t>
+          <t>NPM, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr"/>
@@ -762,7 +762,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>NE, median [Q1,Q3]</t>
+          <t>IR, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr"/>
@@ -793,7 +793,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>PCP, median [Q1,Q3]</t>
+          <t>DER, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr"/>
@@ -802,17 +802,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.75 [0.45,0.98]</t>
+          <t>1.01 [0.40,2.25]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.75 [0.45,0.98]</t>
+          <t>0.99 [0.40,2.22]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.53 [0.28,0.87]</t>
+          <t>1.91 [0.90,4.23]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -824,7 +824,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Ax1, median [Q1,Q3]</t>
+          <t>RSL, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr"/>
@@ -833,17 +833,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.22 [0.04,0.43]</t>
+          <t>0.75 [0.45,0.98]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.22 [0.04,0.43]</t>
+          <t>0.75 [0.45,0.98]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.09 [-0.08,0.28]</t>
+          <t>0.53 [0.28,0.87]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -855,7 +855,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Ax2, median [Q1,Q3]</t>
+          <t>CR, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr"/>
@@ -864,17 +864,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.19 [0.04,0.40]</t>
+          <t>1.70 [1.14,2.96]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.19 [0.05,0.40]</t>
+          <t>1.71 [1.15,2.98]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.04 [-0.12,0.18]</t>
+          <t>1.26 [0.74,2.23]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -886,30 +886,26 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Sector, n (%)</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>Actividades artísticas, de entretenimiento y recreación</t>
-        </is>
-      </c>
+          <t>Ax1, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr"/>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>88 (0.52)</t>
+          <t>0.22 [0.04,0.43]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>86 (0.52)</t>
+          <t>0.22 [0.04,0.43]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2 (0.63)</t>
+          <t>0.09 [-0.08,0.28]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -919,72 +915,92 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>Actividades de atención de la salud humana y de asistencia social</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Ax2, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>64 (0.38)</t>
+          <t>0.19 [0.04,0.40]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>63 (0.38)</t>
+          <t>0.19 [0.05,0.40]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1 (0.31)</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>0.04 [-0.12,0.18]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>&lt;0.001</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Sector, n (%)</t>
+        </is>
+      </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Actividades de organizaciones y entidades extraterritoriales</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3 (0.02)</t>
+          <t>1012 (6.02)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3 (0.02)</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+          <t>990 (6.01)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>22 (6.92)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>&lt;0.001</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Actividades de servicios administrativos y de apoyo</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>646 (3.84)</t>
+          <t>282 (1.68)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>632 (3.83)</t>
+          <t>277 (1.68)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>14 (4.40)</t>
+          <t>5 (1.57)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -993,23 +1009,23 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Actividades financieras y de seguros</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>474 (2.82)</t>
+          <t>2733 (16.27)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>473 (2.87)</t>
+          <t>2645 (16.05)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1 (0.31)</t>
+          <t>88 (27.67)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1018,48 +1034,44 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Actividades inmobiliarias</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1449 (8.62)</t>
+          <t>10 (0.06)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1443 (8.75)</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6 (1.89)</t>
-        </is>
-      </c>
+          <t>10 (0.06)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Actividades profesionales,  científicas y técnicas</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1142 (6.80)</t>
+          <t>28 (0.17)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1127 (6.84)</t>
+          <t>27 (0.16)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15 (4.72)</t>
+          <t>1 (0.31)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1068,44 +1080,48 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Administración pública y defensa; planes de seguridad social de afiliación obligatoria</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4 (0.02)</t>
+          <t>2237 (13.32)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4 (0.02)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>2189 (13.28)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>48 (15.09)</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Agricultura, ganadería, caza, silvicultura y pesca</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1012 (6.02)</t>
+          <t>5288 (31.48)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>990 (6.00)</t>
+          <t>5201 (31.56)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>22 (6.92)</t>
+          <t>87 (27.36)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1114,23 +1130,23 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Alojamiento y servicios de comida</t>
+          <t>H</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>363 (2.16)</t>
+          <t>314 (1.87)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>349 (2.12)</t>
+          <t>310 (1.88)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>14 (4.40)</t>
+          <t>4 (1.26)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1139,23 +1155,23 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Comercio al por mayor y al por menor; reparación de vehículos automotores y motocicletas</t>
+          <t>I</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5288 (31.46)</t>
+          <t>363 (2.16)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5201 (31.54)</t>
+          <t>349 (2.12)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>87 (27.36)</t>
+          <t>14 (4.40)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1164,23 +1180,23 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2238 (13.32)</t>
+          <t>463 (2.76)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2190 (13.28)</t>
+          <t>455 (2.76)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>48 (15.09)</t>
+          <t>8 (2.52)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1189,18 +1205,18 @@
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Distribución de agua; evacuación y tratamiento de aguas residuales, gestión de desechos y actividades de saneanmiento ambiental</t>
+          <t>K</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28 (0.17)</t>
+          <t>474 (2.82)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27 (0.16)</t>
+          <t>473 (2.87)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1214,23 +1230,23 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Educación</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>87 (0.52)</t>
+          <t>1448 (8.62)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>86 (0.52)</t>
+          <t>1442 (8.75)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1 (0.31)</t>
+          <t>6 (1.89)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1239,23 +1255,23 @@
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Explotación de minas y canteras</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>282 (1.68)</t>
+          <t>1141 (6.79)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>277 (1.68)</t>
+          <t>1126 (6.83)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5 (1.57)</t>
+          <t>15 (4.72)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1264,23 +1280,23 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Industrias manufacturetas</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2735 (16.27)</t>
+          <t>646 (3.85)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2647 (16.05)</t>
+          <t>632 (3.83)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>88 (27.67)</t>
+          <t>14 (4.40)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1289,43 +1305,39 @@
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Información y comunicaciones</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>464 (2.76)</t>
+          <t>4 (0.02)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>456 (2.77)</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>8 (2.52)</t>
-        </is>
-      </c>
+          <t>4 (0.02)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Otras actividades de servicios</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>115 (0.68)</t>
+          <t>87 (0.52)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>114 (0.69)</t>
+          <t>86 (0.52)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1339,51 +1351,101 @@
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Suministro de electricidad, gas, vapor y aire acondicionado</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>10 (0.06)</t>
+          <t>64 (0.38)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10 (0.06)</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>63 (0.38)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1 (0.31)</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Transporte y almacenamiento</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>314 (1.87)</t>
+          <t>88 (0.52)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>310 (1.88)</t>
+          <t>86 (0.52)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4 (1.26)</t>
+          <t>2 (0.63)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>115 (0.68)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>114 (0.69)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1 (0.31)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3 (0.02)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3 (0.02)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A17:A36"/>
+    <mergeCell ref="A19:A38"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A5:A8"/>
   </mergeCells>
